--- a/data/raw/clinical_maps_abx.xlsx
+++ b/data/raw/clinical_maps_abx.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamova/Documents/projects/14_LM1/NJODE/anomaly_microbiome_data_processing/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B7A2AF-CCC4-AD46-B87D-8CB798BD106E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{725864EF-78B1-AD42-81E6-9AF5317CC388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14960" yWindow="4700" windowWidth="22400" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16500" yWindow="7320" windowWidth="26300" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="abx_name" sheetId="1" r:id="rId1"/>
-    <sheet name="abx_reason" sheetId="2" r:id="rId2"/>
+    <sheet name="ReadMe" sheetId="3" r:id="rId1"/>
+    <sheet name="abx_name" sheetId="1" r:id="rId2"/>
+    <sheet name="abx_reason" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">abx_reason!$A$1:$E$59</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">abx_reason!$A$1:$D$59</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="132">
   <si>
     <t>abx_name</t>
   </si>
@@ -165,36 +166,12 @@
     <t>Others/often in combination with Sulfamethaxole</t>
   </si>
   <si>
-    <t>examine Cotrimoxazole and nitrofurans alone or as "others"</t>
-  </si>
-  <si>
-    <t>Trimethoprim: most often in combination --&gt; forgot about Trimethoprim or really alone?</t>
-  </si>
-  <si>
     <t>Cotrimoxazole</t>
   </si>
   <si>
-    <t>all other entried with "other" option were grouped into "other" due to small sample size</t>
-  </si>
-  <si>
-    <t>Cotrimoxazole as separate group since it is frequent enough</t>
-  </si>
-  <si>
-    <t>Open points from Alina:</t>
-  </si>
-  <si>
-    <t>classes_by_alina</t>
-  </si>
-  <si>
     <t>abx_grouping</t>
   </si>
   <si>
-    <t>Current grouping decided by Anja (in column "abx_grouping")</t>
-  </si>
-  <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Otitis media</t>
   </si>
   <si>
@@ -351,33 +328,18 @@
     <t>Neonatal infection NAS</t>
   </si>
   <si>
-    <t>grouped "others" and "not specified" into "others"</t>
-  </si>
-  <si>
     <t>Scarlet fever</t>
   </si>
   <si>
-    <t>grouped respiratory tract as one - independent on whether it is upper or lower</t>
-  </si>
-  <si>
     <t>Prolonged respitaroty infection</t>
   </si>
   <si>
-    <t>Decisions by Anja in column "reason_grouping":</t>
-  </si>
-  <si>
     <t>Prophylaxis (acute otitis media)</t>
   </si>
   <si>
-    <t>respiratory tract infection as one or splitted by location? Cave: in some cases not possible</t>
-  </si>
-  <si>
     <t>Fever NAS</t>
   </si>
   <si>
-    <t>combine others and not specifid?</t>
-  </si>
-  <si>
     <t>Acute cystitis NAS</t>
   </si>
   <si>
@@ -420,9 +382,6 @@
     <t>reason_grouping</t>
   </si>
   <si>
-    <t>/upper</t>
-  </si>
-  <si>
     <t>abx_reason</t>
   </si>
   <si>
@@ -433,13 +392,109 @@
   </si>
   <si>
     <t>Infection in neonatal period</t>
+  </si>
+  <si>
+    <t>TAB: abx_name</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This file describes the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>grouping of antibiotics</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t xml:space="preserve"> used in the the anomaly detection usecase with PD-NJ-ODE. 
+Antibiotics were grouped by the antibiotic type (see tab "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>abx_name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>") and by the symptoms that caused the antibiotics administration (see tab "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>abx_reason</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color indexed="8"/>
+        <rFont val="Aptos Narrow"/>
+      </rPr>
+      <t>").</t>
+    </r>
+  </si>
+  <si>
+    <t>classes_by_clinician</t>
+  </si>
+  <si>
+    <t>Field:</t>
+  </si>
+  <si>
+    <t>Description:</t>
+  </si>
+  <si>
+    <t>TAB: abx_reason</t>
+  </si>
+  <si>
+    <t>Symptoms documented for the use of antibiotics.</t>
+  </si>
+  <si>
+    <t>Number of samples with this reason.</t>
+  </si>
+  <si>
+    <t>Number of samples with this antibiotic adminstration.</t>
+  </si>
+  <si>
+    <t>Name of the antibiotic.</t>
+  </si>
+  <si>
+    <t>Grouping of antibiotics by clinican</t>
+  </si>
+  <si>
+    <t>Final grouping of this antibiotic - aggregared certain groups from "classes_by_clinician" due to small sample size.</t>
+  </si>
+  <si>
+    <t>Grouping of symptoms by clinican.</t>
+  </si>
+  <si>
+    <t>Final grouping of symptoms for use of antibiotics  - aggregared certain groups from "classes_by_clinician" due to small sample size.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -456,8 +511,26 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,60 +563,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF7B4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC0CAFC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2CEEF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE3FDFF"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -590,26 +615,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFAAAAAA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFAAAAAA"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFAAAAAA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFAAAAAA"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -624,18 +634,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -710,6 +735,7 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
     <mruColors>
+      <color rgb="FF0094FF"/>
       <color rgb="FFDFBCCB"/>
     </mruColors>
   </colors>
@@ -1798,11 +1824,346 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921AAAF8-A801-524E-B286-58490EE47E96}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+    </row>
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+    </row>
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+    </row>
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+    </row>
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+    </row>
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="17"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A10:I10"/>
+    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B8:I8"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="B7:I7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1824,15 +2185,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E1" s="11"/>
-      <c r="F1" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1865,9 +2224,7 @@
         <v>Other</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="9" t="s">
-        <v>47</v>
-      </c>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1884,9 +2241,6 @@
         <v>Macrolide</v>
       </c>
       <c r="E4" s="3"/>
-      <c r="F4" s="1" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="5" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
@@ -1899,12 +2253,9 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3"/>
-      <c r="F5" s="1" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
@@ -1933,12 +2284,10 @@
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="9" t="s">
-        <v>50</v>
-      </c>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
@@ -1955,9 +2304,6 @@
         <v>Macrolide</v>
       </c>
       <c r="E8" s="3"/>
-      <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
@@ -1974,9 +2320,6 @@
         <v>Penicillin</v>
       </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
@@ -2005,7 +2348,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -2381,993 +2724,914 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D184347-A7FB-114A-8B2A-ADBA080616CB}">
-  <dimension ref="A1:G59"/>
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="37.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="72.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="72.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="9" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>113</v>
+      </c>
+      <c r="E1" s="16"/>
+    </row>
+    <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4">
         <v>256</v>
       </c>
-      <c r="C2" s="14"/>
+      <c r="C2" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B3" s="4">
         <v>196</v>
       </c>
-      <c r="C3" s="14"/>
+      <c r="C3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="E3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="B4" s="4">
         <v>33</v>
       </c>
-      <c r="C4" s="19"/>
+      <c r="C4" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B5" s="4">
         <v>22</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="C5" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="B6" s="4">
         <v>14</v>
       </c>
-      <c r="C6" s="19"/>
+      <c r="C6" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D6" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="B7" s="4">
         <v>14</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B8" s="4">
         <v>10</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D8" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B9" s="4">
         <v>5</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="D9" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B10" s="4">
         <v>4</v>
       </c>
-      <c r="C10" s="18"/>
+      <c r="C10" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="E10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="19"/>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B12" s="4">
         <v>4</v>
       </c>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="21"/>
-    </row>
-    <row r="13" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C12" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="B13" s="4">
         <v>3</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B14" s="4">
         <v>3</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+      <c r="E14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B15" s="4">
         <v>3</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="B16" s="4">
         <v>2</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D16" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="9" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="E16" s="13"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B17" s="4">
         <v>2</v>
       </c>
-      <c r="C17" s="19"/>
+      <c r="C17" s="3" t="s">
+        <v>73</v>
+      </c>
       <c r="D17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="E17" s="13"/>
+    </row>
+    <row r="18" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B18" s="4">
         <v>2</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E18" s="13"/>
+    </row>
+    <row r="19" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="C19" s="24"/>
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="E19" s="13"/>
+    </row>
+    <row r="20" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B20" s="4">
         <v>2</v>
       </c>
-      <c r="C20" s="17"/>
+      <c r="C20" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E20" s="13"/>
+    </row>
+    <row r="21" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B21" s="4">
         <v>2</v>
       </c>
-      <c r="C21" s="23"/>
-      <c r="D21" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B22" s="4">
         <v>2</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="14"/>
+    </row>
+    <row r="23" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B23" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="20"/>
+      <c r="C23" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="D23" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="E23" s="13"/>
+    </row>
+    <row r="24" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B24" s="4">
         <v>2</v>
       </c>
-      <c r="C24" s="24"/>
+      <c r="C24" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D24" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F24" s="13"/>
-    </row>
-    <row r="25" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="E24" s="13"/>
+    </row>
+    <row r="25" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B25" s="4">
         <v>2</v>
       </c>
-      <c r="C25" s="24"/>
+      <c r="C25" s="3" t="s">
+        <v>88</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F25" s="13"/>
-    </row>
-    <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="E25" s="13"/>
+    </row>
+    <row r="26" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B26" s="4">
         <v>2</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E26" s="13"/>
+    </row>
+    <row r="27" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B27" s="4">
         <v>2</v>
       </c>
-      <c r="C27" s="14"/>
+      <c r="C27" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E27" s="13"/>
+    </row>
+    <row r="28" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="13"/>
+    </row>
+    <row r="29" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="13"/>
+    </row>
+    <row r="30" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" s="13"/>
+    </row>
+    <row r="31" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="13"/>
+    </row>
+    <row r="32" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="4">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E32" s="13"/>
+    </row>
+    <row r="33" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="13"/>
+    </row>
+    <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="13"/>
+    </row>
+    <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E38" s="13"/>
+    </row>
+    <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" s="13"/>
+    </row>
+    <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="13"/>
+    </row>
+    <row r="41" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="13"/>
+    </row>
+    <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E42" s="13"/>
+    </row>
+    <row r="43" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="13"/>
+    </row>
+    <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="13"/>
+    </row>
+    <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="13"/>
+    </row>
+    <row r="47" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="13"/>
+    </row>
+    <row r="50" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="13"/>
+    </row>
+    <row r="51" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E51" s="13"/>
+    </row>
+    <row r="52" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="55" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="13"/>
-    </row>
-    <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1</v>
-      </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="4">
-        <v>1</v>
-      </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="16"/>
-      <c r="D32" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1</v>
-      </c>
-      <c r="C33" s="16"/>
-      <c r="D33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F33" s="13"/>
-    </row>
-    <row r="34" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="16"/>
-      <c r="D34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="20"/>
-      <c r="D35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F35" s="13"/>
-    </row>
-    <row r="36" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" s="13"/>
-    </row>
-    <row r="37" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1</v>
-      </c>
-      <c r="C37" s="16"/>
-      <c r="D37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F37" s="13"/>
-    </row>
-    <row r="38" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F38" s="13"/>
-    </row>
-    <row r="39" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="19"/>
-      <c r="D40" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B42" s="4">
-        <v>1</v>
-      </c>
-      <c r="C42" s="20"/>
-      <c r="D42" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" s="13"/>
-    </row>
-    <row r="43" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B43" s="4">
-        <v>1</v>
-      </c>
-      <c r="C43" s="23"/>
-      <c r="D43" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F43" s="21"/>
-    </row>
-    <row r="44" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B44" s="4">
-        <v>1</v>
-      </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="13"/>
-    </row>
-    <row r="45" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="16"/>
-      <c r="D45" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F45" s="13"/>
-    </row>
-    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F46" s="13"/>
-    </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="13"/>
-    </row>
-    <row r="48" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="14"/>
-      <c r="D48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="13"/>
-    </row>
-    <row r="49" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="F49" s="13"/>
-    </row>
-    <row r="50" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="4">
-        <v>1</v>
-      </c>
-      <c r="C50" s="16"/>
-      <c r="D50" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" s="13"/>
-    </row>
-    <row r="51" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="16"/>
-      <c r="D51" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F51" s="13"/>
-    </row>
-    <row r="52" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="18"/>
-      <c r="D53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="15"/>
-      <c r="D54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="B55" s="4">
         <v>1</v>
       </c>
-      <c r="C55" s="17"/>
+      <c r="C55" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="D55" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E55" s="13"/>
+    </row>
+    <row r="56" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4">
         <v>1</v>
       </c>
-      <c r="C56" s="16"/>
+      <c r="C56" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F56" s="13"/>
-    </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E56" s="13"/>
+    </row>
+    <row r="57" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B57" s="4">
         <v>1</v>
       </c>
-      <c r="C57" s="16"/>
+      <c r="C57" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F57" s="13"/>
-    </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="E57" s="13"/>
+    </row>
+    <row r="58" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B58" s="4">
         <v>1</v>
       </c>
-      <c r="C58" s="15"/>
+      <c r="C58" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="D58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="13"/>
-    </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="E58" s="13"/>
+    </row>
+    <row r="59" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B59" s="4">
         <v>1</v>
       </c>
-      <c r="C59" s="14"/>
+      <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="13"/>
+        <v>44</v>
+      </c>
+      <c r="E59" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:D59" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
